--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias34Dp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias34Dp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECE141D-0921-474F-8A01-B13D0B7922D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A4BB28-6B19-4187-9965-C7725E4D8A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="345">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2077,6 +2077,10 @@
   </si>
   <si>
     <t>NVL("FacProd"."Ifrs9ProdCode", ' ')</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/12/13長度由3改為4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3004,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -3498,10 +3502,12 @@
         <v>32</v>
       </c>
       <c r="E24" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="H24" s="63" t="s">
         <v>272</v>
       </c>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias34Dp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias34Dp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A4BB28-6B19-4187-9965-C7725E4D8A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F450E15F-8EE3-4DB9-BC6D-BE678ACE0A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,12 +1153,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1=正常
-2=催收
-3=呆帳(新壽有部份轉呆的狀態，但若屬本項情形，狀態轉列為"呆帳")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1276,11 +1270,6 @@
   </si>
   <si>
     <t>企業戶/個人戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=企業戶
-2=個人戶</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2081,6 +2070,17 @@
   </si>
   <si>
     <t>2021/12/13長度由3改為4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:正常
+2:催收
+3:呆帳(新壽有部份轉呆的狀態，但若屬本項情形，狀態轉列為"呆帳")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶
+2:個人戶</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3008,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -3033,7 +3033,7 @@
         <v>93</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>20</v>
@@ -3141,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1">
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>34</v>
@@ -3163,7 +3163,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="12"/>
       <c r="H9" s="63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1">
@@ -3185,7 +3185,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="12"/>
       <c r="H10" s="63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3207,7 +3207,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="12"/>
       <c r="H11" s="63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3229,7 +3229,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="12"/>
       <c r="H12" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3240,7 +3240,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>32</v>
@@ -3251,7 +3251,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="12"/>
       <c r="H13" s="63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34.200000000000003">
@@ -3273,7 +3273,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="12"/>
       <c r="H14" s="67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="64.8">
@@ -3281,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>103</v>
@@ -3294,10 +3294,10 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="12" t="s">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3305,7 +3305,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>171</v>
@@ -3319,7 +3319,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="12"/>
       <c r="H16" s="63" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3341,7 +3341,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="12"/>
       <c r="H17" s="63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1">
@@ -3363,7 +3363,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="13"/>
       <c r="H18" s="64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3386,10 +3386,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3421,7 +3421,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>174</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3445,7 +3445,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>175</v>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="82.8">
@@ -3506,10 +3506,10 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3520,7 +3520,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>73</v>
@@ -3531,7 +3531,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="12"/>
       <c r="H25" s="63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3542,7 +3542,7 @@
         <v>82</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>73</v>
@@ -3552,10 +3552,10 @@
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H26" s="63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3566,7 +3566,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>32</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="65" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="194.4">
@@ -3587,7 +3587,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>115</v>
@@ -3601,7 +3601,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="19"/>
       <c r="H28" s="68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -3609,7 +3609,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>176</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3633,7 +3633,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>118</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3657,7 +3657,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>177</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4">
@@ -3681,7 +3681,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>178</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="48.6">
@@ -3705,7 +3705,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>179</v>
@@ -3720,10 +3720,10 @@
         <v>2</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48.6">
@@ -3731,7 +3731,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>180</v>
@@ -3746,10 +3746,10 @@
         <v>2</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H34" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="48.6">
@@ -3757,7 +3757,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>181</v>
@@ -3772,10 +3772,10 @@
         <v>2</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H35" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32.4">
@@ -3783,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>182</v>
@@ -3798,10 +3798,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H36" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32.4">
@@ -3809,7 +3809,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>183</v>
@@ -3824,10 +3824,10 @@
         <v>2</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H37" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32.4">
@@ -3835,7 +3835,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>184</v>
@@ -3850,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H38" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32.4">
@@ -3861,7 +3861,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>185</v>
@@ -3876,10 +3876,10 @@
         <v>2</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H39" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32.4">
@@ -3887,7 +3887,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>186</v>
@@ -3902,10 +3902,10 @@
         <v>2</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H40" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32.4">
@@ -3913,7 +3913,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>187</v>
@@ -3928,10 +3928,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H41" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.4">
@@ -3939,7 +3939,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>188</v>
@@ -3954,10 +3954,10 @@
         <v>2</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H42" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32.4">
@@ -3965,7 +3965,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>189</v>
@@ -3980,10 +3980,10 @@
         <v>2</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H43" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32.4">
@@ -3991,7 +3991,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>190</v>
@@ -4006,10 +4006,10 @@
         <v>2</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H44" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="32.4">
@@ -4017,7 +4017,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>191</v>
@@ -4032,10 +4032,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H45" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="32.4">
@@ -4043,7 +4043,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>192</v>
@@ -4058,10 +4058,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H46" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="32.4">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>193</v>
@@ -4084,10 +4084,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H47" s="70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="37.799999999999997">
@@ -4098,7 +4098,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>3</v>
@@ -4109,7 +4109,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="12"/>
       <c r="H48" s="69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4117,10 +4117,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>3</v>
@@ -4131,7 +4131,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="12"/>
       <c r="H49" s="63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="1" customFormat="1">
@@ -4139,10 +4139,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>3</v>
@@ -4152,10 +4152,10 @@
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H50" s="63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4163,7 +4163,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>77</v>
@@ -4177,7 +4177,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="12"/>
       <c r="H51" s="63" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="50.4">
@@ -4185,10 +4185,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>32</v>
@@ -4198,10 +4198,10 @@
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="12" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4209,10 +4209,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>3</v>
@@ -4223,7 +4223,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="12"/>
       <c r="H53" s="63" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4580,24 +4580,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="59" customFormat="1">
       <c r="A1" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>242</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="60" customFormat="1">
       <c r="A2" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>245</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4622,77 +4622,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="71" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="41.4">
       <c r="A2" s="71" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="71" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="41.4">
       <c r="A4" s="71" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="27.6">
       <c r="A5" s="71" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="41.4">
       <c r="A6" s="71" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="41.4">
       <c r="A7" s="71" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="27.6">
       <c r="A8" s="71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="55.2">
       <c r="A10" s="71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="138">
       <c r="A11" s="71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4717,222 +4717,222 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="73" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="73" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="73" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45.6">
       <c r="A7" s="73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="45.6">
       <c r="A8" s="73" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="45.6">
       <c r="A9" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45.6">
       <c r="A10" s="73" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45.6">
       <c r="A11" s="73" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="45.6">
       <c r="A12" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="74" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="74" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="45.6">
       <c r="A18" s="73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45.6">
       <c r="A19" s="73" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="45.6">
       <c r="A20" s="73" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45.6">
       <c r="A21" s="73" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="45.6">
       <c r="A22" s="73" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="74" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="125.4">
       <c r="A25" s="73" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="45.6">
       <c r="A26" s="73" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="57">
       <c r="A27" s="73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="57">
       <c r="A28" s="73" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="57">
       <c r="A29" s="73" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="57">
       <c r="A30" s="73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="57">
       <c r="A31" s="73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="57">
       <c r="A32" s="73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="193.8">
       <c r="A33" s="73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="193.8">
       <c r="A34" s="73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="193.8">
       <c r="A35" s="73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="193.8">
       <c r="A36" s="73" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="193.8">
       <c r="A37" s="73" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="171">
       <c r="A38" s="73" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="171">
       <c r="A39" s="73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="171">
       <c r="A40" s="73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="171">
       <c r="A41" s="73" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="171">
       <c r="A42" s="73" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="74" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="74" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -9259,7 +9259,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="22" customFormat="1" ht="22.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2">
@@ -9408,7 +9408,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>110</v>
@@ -9503,7 +9503,7 @@
         <v>114</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>85</v>
@@ -9601,7 +9601,7 @@
         <v>121</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>110</v>
